--- a/biology/Botanique/Pterolepis_glomerata/Pterolepis_glomerata.xlsx
+++ b/biology/Botanique/Pterolepis_glomerata/Pterolepis_glomerata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterolepis glomerata est une espèce de plantes à fleurs de la famille des Melastomataceae originaire des Antilles et d'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rhexia glomerata Rottb. (basionyme)
 Arthrostemma glomeratum  (Rottb.) Cham.
@@ -544,7 +558,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arthrostemme à fleurs en glomérules
 Herbe à vaches mâle (Guadeloupe)
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,7 +620,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones semi-ouvertes humides, lisières de forêts denses, en Guadeloupe, Dominique, Martinique, Sainte-Lucie, Saint-Vincent, Grenade, Hispaniola, Porto Rico, Trinidad, Guyane, Venezuela, Nord du Brésil.
 C'est une espèce invasive à Hawaii.
@@ -634,9 +654,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (1 août 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 août 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Pterolepis glomerata var. angustifolia Cogn.
 variété Pterolepis glomerata var. angusturensis (Rich.) Cogn.
 variété Pterolepis glomerata var. brachyandra (Cham.) Cogn.
